--- a/workingfolder/python/tables/SE_Est.xlsx
+++ b/workingfolder/python/tables/SE_Est.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="8">
   <si>
     <t>SE: $\hat\lambda_{SPF}$(Q)</t>
   </si>
@@ -26,9 +26,6 @@
   </si>
   <si>
     <t>SE: $\hat\lambda_{SCE}$(M)</t>
-  </si>
-  <si>
-    <t>SE: $\hat\lambda_{SCE}$(Q)</t>
   </si>
   <si>
     <t>Forecast</t>
@@ -433,7 +430,7 @@
         <v>3</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="K1" s="1" t="s">
         <v>1</v>
@@ -444,7 +441,7 @@
     </row>
     <row r="2" spans="1:12">
       <c r="A2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E2">
         <v>0.21</v>
@@ -459,7 +456,7 @@
         <v>0.1</v>
       </c>
       <c r="I2">
-        <v>1.8</v>
+        <v>1</v>
       </c>
       <c r="J2">
         <v>1</v>
@@ -473,7 +470,7 @@
     </row>
     <row r="3" spans="1:12">
       <c r="A3" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E3">
         <v>0.18</v>
@@ -488,7 +485,7 @@
         <v>0.1</v>
       </c>
       <c r="I3">
-        <v>1.74</v>
+        <v>1</v>
       </c>
       <c r="J3">
         <v>1</v>
@@ -502,10 +499,10 @@
     </row>
     <row r="4" spans="1:12">
       <c r="A4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4" t="s">
         <v>5</v>
-      </c>
-      <c r="B4" t="s">
-        <v>6</v>
       </c>
       <c r="E4">
         <v>0.2</v>
@@ -520,7 +517,7 @@
         <v>0.1</v>
       </c>
       <c r="I4">
-        <v>1.77</v>
+        <v>1</v>
       </c>
       <c r="J4">
         <v>1</v>
@@ -534,13 +531,13 @@
     </row>
     <row r="5" spans="1:12">
       <c r="A5" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5" t="s">
         <v>5</v>
       </c>
-      <c r="B5" t="s">
+      <c r="C5" t="s">
         <v>6</v>
-      </c>
-      <c r="C5" t="s">
-        <v>7</v>
       </c>
       <c r="E5">
         <v>0.23</v>
@@ -569,16 +566,16 @@
     </row>
     <row r="6" spans="1:12">
       <c r="A6" t="s">
+        <v>4</v>
+      </c>
+      <c r="B6" t="s">
         <v>5</v>
       </c>
-      <c r="B6" t="s">
+      <c r="C6" t="s">
         <v>6</v>
       </c>
-      <c r="C6" t="s">
+      <c r="D6" t="s">
         <v>7</v>
-      </c>
-      <c r="D6" t="s">
-        <v>8</v>
       </c>
       <c r="E6">
         <v>0.26</v>

--- a/workingfolder/python/tables/SE_Est.xlsx
+++ b/workingfolder/python/tables/SE_Est.xlsx
@@ -444,7 +444,7 @@
         <v>4</v>
       </c>
       <c r="E2">
-        <v>0.21</v>
+        <v>0.04</v>
       </c>
       <c r="F2">
         <v>0.01</v>
@@ -473,10 +473,10 @@
         <v>5</v>
       </c>
       <c r="E3">
-        <v>0.18</v>
+        <v>1</v>
       </c>
       <c r="F3">
-        <v>0.01</v>
+        <v>1</v>
       </c>
       <c r="G3">
         <v>1</v>
@@ -488,7 +488,7 @@
         <v>1</v>
       </c>
       <c r="J3">
-        <v>1</v>
+        <v>0.15</v>
       </c>
       <c r="K3">
         <v>1</v>
@@ -505,10 +505,10 @@
         <v>5</v>
       </c>
       <c r="E4">
-        <v>0.2</v>
+        <v>1</v>
       </c>
       <c r="F4">
-        <v>0.01</v>
+        <v>1</v>
       </c>
       <c r="G4">
         <v>1</v>
@@ -520,7 +520,7 @@
         <v>1</v>
       </c>
       <c r="J4">
-        <v>1</v>
+        <v>0.15</v>
       </c>
       <c r="K4">
         <v>1</v>
@@ -540,10 +540,10 @@
         <v>6</v>
       </c>
       <c r="E5">
-        <v>0.23</v>
+        <v>1</v>
       </c>
       <c r="F5">
-        <v>0.05</v>
+        <v>1</v>
       </c>
       <c r="G5">
         <v>1</v>
@@ -552,13 +552,13 @@
         <v>0.1</v>
       </c>
       <c r="I5">
-        <v>0.02</v>
+        <v>1</v>
       </c>
       <c r="J5">
-        <v>0.03</v>
+        <v>0.15</v>
       </c>
       <c r="K5">
-        <v>0.98</v>
+        <v>1</v>
       </c>
       <c r="L5">
         <v>0.1</v>
@@ -578,28 +578,28 @@
         <v>7</v>
       </c>
       <c r="E6">
+        <v>1</v>
+      </c>
+      <c r="F6">
+        <v>1</v>
+      </c>
+      <c r="G6">
+        <v>1</v>
+      </c>
+      <c r="H6">
+        <v>0.24</v>
+      </c>
+      <c r="I6">
+        <v>1</v>
+      </c>
+      <c r="J6">
         <v>0.26</v>
       </c>
-      <c r="F6">
-        <v>0.05</v>
-      </c>
-      <c r="G6">
-        <v>1</v>
-      </c>
-      <c r="H6">
-        <v>0.07000000000000001</v>
-      </c>
-      <c r="I6">
-        <v>0.01</v>
-      </c>
-      <c r="J6">
-        <v>0.03</v>
-      </c>
       <c r="K6">
-        <v>0.98</v>
+        <v>1</v>
       </c>
       <c r="L6">
-        <v>1.11</v>
+        <v>2.02</v>
       </c>
     </row>
   </sheetData>

--- a/workingfolder/python/tables/SE_Est.xlsx
+++ b/workingfolder/python/tables/SE_Est.xlsx
@@ -444,10 +444,10 @@
         <v>4</v>
       </c>
       <c r="E2">
-        <v>0.04</v>
+        <v>0.05</v>
       </c>
       <c r="F2">
-        <v>0.01</v>
+        <v>0.03</v>
       </c>
       <c r="G2">
         <v>1</v>
@@ -473,10 +473,10 @@
         <v>5</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>0.05</v>
       </c>
       <c r="F3">
-        <v>1</v>
+        <v>0.03</v>
       </c>
       <c r="G3">
         <v>1</v>
@@ -488,7 +488,7 @@
         <v>1</v>
       </c>
       <c r="J3">
-        <v>0.15</v>
+        <v>1</v>
       </c>
       <c r="K3">
         <v>1</v>
@@ -505,10 +505,10 @@
         <v>5</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>0.05</v>
       </c>
       <c r="F4">
-        <v>1</v>
+        <v>0.03</v>
       </c>
       <c r="G4">
         <v>1</v>
@@ -520,7 +520,7 @@
         <v>1</v>
       </c>
       <c r="J4">
-        <v>0.15</v>
+        <v>1</v>
       </c>
       <c r="K4">
         <v>1</v>
@@ -540,25 +540,25 @@
         <v>6</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>0.7</v>
       </c>
       <c r="F5">
-        <v>1</v>
+        <v>0.38</v>
       </c>
       <c r="G5">
-        <v>1</v>
+        <v>0.88</v>
       </c>
       <c r="H5">
         <v>0.1</v>
       </c>
       <c r="I5">
-        <v>1</v>
+        <v>0.02</v>
       </c>
       <c r="J5">
-        <v>0.15</v>
+        <v>0.03</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>0.98</v>
       </c>
       <c r="L5">
         <v>0.1</v>
@@ -578,28 +578,28 @@
         <v>7</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>0.7</v>
       </c>
       <c r="F6">
-        <v>1</v>
+        <v>0.38</v>
       </c>
       <c r="G6">
-        <v>1</v>
+        <v>0.88</v>
       </c>
       <c r="H6">
-        <v>0.24</v>
+        <v>0.2</v>
       </c>
       <c r="I6">
-        <v>1</v>
+        <v>0.01</v>
       </c>
       <c r="J6">
-        <v>0.26</v>
+        <v>0.03</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>0.98</v>
       </c>
       <c r="L6">
-        <v>2.02</v>
+        <v>1.11</v>
       </c>
     </row>
   </sheetData>

--- a/workingfolder/python/tables/SE_Est.xlsx
+++ b/workingfolder/python/tables/SE_Est.xlsx
@@ -14,15 +14,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="6">
   <si>
     <t>SE: $\hat\lambda_{SPF}$(Q)</t>
-  </si>
-  <si>
-    <t>SE: $\rho$</t>
-  </si>
-  <si>
-    <t>SE: $\sigma$</t>
   </si>
   <si>
     <t>SE: $\hat\lambda_{SCE}$(M)</t>
@@ -395,13 +389,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L6"/>
+  <dimension ref="A1:E6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:12">
+    <row r="1" spans="1:5">
       <c r="A1" s="1">
         <v>0</v>
       </c>
@@ -411,195 +405,78 @@
       <c r="C1" s="1">
         <v>2</v>
       </c>
-      <c r="D1" s="1">
+      <c r="D1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
+      <c r="A2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D2">
+        <v>0.04</v>
+      </c>
+      <c r="E2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="I1" s="1" t="s">
+      <c r="D3">
+        <v>0.05</v>
+      </c>
+      <c r="E3">
+        <v>0.19</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4" t="s">
         <v>3</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="B4" t="s">
+        <v>4</v>
+      </c>
+      <c r="D4">
+        <v>0.17</v>
+      </c>
+      <c r="E4">
+        <v>0.19</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5" t="s">
         <v>3</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="2" spans="1:12">
-      <c r="A2" t="s">
-        <v>4</v>
-      </c>
-      <c r="E2">
-        <v>0.05</v>
-      </c>
-      <c r="F2">
-        <v>0.03</v>
-      </c>
-      <c r="G2">
-        <v>1</v>
-      </c>
-      <c r="H2">
-        <v>0.1</v>
-      </c>
-      <c r="I2">
-        <v>1</v>
-      </c>
-      <c r="J2">
-        <v>1</v>
-      </c>
-      <c r="K2">
-        <v>1</v>
-      </c>
-      <c r="L2">
-        <v>0.1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12">
-      <c r="A3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E3">
-        <v>0.05</v>
-      </c>
-      <c r="F3">
-        <v>0.03</v>
-      </c>
-      <c r="G3">
-        <v>1</v>
-      </c>
-      <c r="H3">
-        <v>0.1</v>
-      </c>
-      <c r="I3">
-        <v>1</v>
-      </c>
-      <c r="J3">
-        <v>1</v>
-      </c>
-      <c r="K3">
-        <v>1</v>
-      </c>
-      <c r="L3">
-        <v>0.1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12">
-      <c r="A4" t="s">
-        <v>4</v>
-      </c>
-      <c r="B4" t="s">
-        <v>5</v>
-      </c>
-      <c r="E4">
-        <v>0.05</v>
-      </c>
-      <c r="F4">
-        <v>0.03</v>
-      </c>
-      <c r="G4">
-        <v>1</v>
-      </c>
-      <c r="H4">
-        <v>0.1</v>
-      </c>
-      <c r="I4">
-        <v>1</v>
-      </c>
-      <c r="J4">
-        <v>1</v>
-      </c>
-      <c r="K4">
-        <v>1</v>
-      </c>
-      <c r="L4">
-        <v>0.1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12">
-      <c r="A5" t="s">
-        <v>4</v>
       </c>
       <c r="B5" t="s">
         <v>5</v>
       </c>
-      <c r="C5" t="s">
-        <v>6</v>
+      <c r="D5">
+        <v>0.16</v>
       </c>
       <c r="E5">
-        <v>0.7</v>
-      </c>
-      <c r="F5">
-        <v>0.38</v>
-      </c>
-      <c r="G5">
-        <v>0.88</v>
-      </c>
-      <c r="H5">
-        <v>0.1</v>
-      </c>
-      <c r="I5">
-        <v>0.02</v>
-      </c>
-      <c r="J5">
-        <v>0.03</v>
-      </c>
-      <c r="K5">
-        <v>0.98</v>
-      </c>
-      <c r="L5">
-        <v>0.1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12">
+        <v>0.18</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
       <c r="A6" t="s">
+        <v>3</v>
+      </c>
+      <c r="B6" t="s">
         <v>4</v>
       </c>
-      <c r="B6" t="s">
+      <c r="C6" t="s">
         <v>5</v>
       </c>
-      <c r="C6" t="s">
-        <v>6</v>
-      </c>
-      <c r="D6" t="s">
-        <v>7</v>
+      <c r="D6">
+        <v>0.53</v>
       </c>
       <c r="E6">
-        <v>0.7</v>
-      </c>
-      <c r="F6">
-        <v>0.38</v>
-      </c>
-      <c r="G6">
-        <v>0.88</v>
-      </c>
-      <c r="H6">
-        <v>0.2</v>
-      </c>
-      <c r="I6">
-        <v>0.01</v>
-      </c>
-      <c r="J6">
-        <v>0.03</v>
-      </c>
-      <c r="K6">
-        <v>0.98</v>
-      </c>
-      <c r="L6">
-        <v>1.11</v>
+        <v>0.18</v>
       </c>
     </row>
   </sheetData>

--- a/workingfolder/python/tables/SE_Est.xlsx
+++ b/workingfolder/python/tables/SE_Est.xlsx
@@ -14,24 +14,30 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="8">
   <si>
     <t>SE: $\hat\lambda_{SPF}$(Q)</t>
   </si>
   <si>
+    <t>SE: $\rho$</t>
+  </si>
+  <si>
+    <t>SE: $\sigma$</t>
+  </si>
+  <si>
     <t>SE: $\hat\lambda_{SCE}$(M)</t>
   </si>
   <si>
-    <t>Forecast</t>
-  </si>
-  <si>
-    <t>FE</t>
-  </si>
-  <si>
-    <t>Disg</t>
-  </si>
-  <si>
-    <t>Var</t>
+    <t>FEVar</t>
+  </si>
+  <si>
+    <t>FEATV</t>
+  </si>
+  <si>
+    <t>DisgATV</t>
+  </si>
+  <si>
+    <t>DisgVar</t>
   </si>
 </sst>
 </file>
@@ -389,13 +395,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E6"/>
+  <dimension ref="A1:L5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:12">
       <c r="A1" s="1">
         <v>0</v>
       </c>
@@ -405,78 +411,175 @@
       <c r="C1" s="1">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="1">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="E1" s="1" t="s">
-        <v>1</v>
+      <c r="F1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:5">
+    <row r="2" spans="1:12">
       <c r="A2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D2">
-        <v>0.04</v>
+        <v>4</v>
+      </c>
+      <c r="B2" t="s">
+        <v>5</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>0.47</v>
+      </c>
+      <c r="F2">
+        <v>0.36</v>
+      </c>
+      <c r="G2">
+        <v>1</v>
+      </c>
+      <c r="H2">
+        <v>0.08</v>
+      </c>
+      <c r="I2">
+        <v>0.2</v>
+      </c>
+      <c r="J2">
+        <v>0.59</v>
+      </c>
+      <c r="K2">
+        <v>0.99</v>
+      </c>
+      <c r="L2">
+        <v>0.08</v>
       </c>
     </row>
-    <row r="3" spans="1:5">
+    <row r="3" spans="1:12">
       <c r="A3" t="s">
-        <v>3</v>
-      </c>
-      <c r="D3">
-        <v>0.05</v>
+        <v>4</v>
+      </c>
+      <c r="B3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3" t="s">
+        <v>7</v>
       </c>
       <c r="E3">
-        <v>0.19</v>
+        <v>0.27</v>
+      </c>
+      <c r="F3">
+        <v>0.38</v>
+      </c>
+      <c r="G3">
+        <v>1</v>
+      </c>
+      <c r="H3">
+        <v>0.11</v>
+      </c>
+      <c r="I3">
+        <v>0.2</v>
+      </c>
+      <c r="J3">
+        <v>0.5600000000000001</v>
+      </c>
+      <c r="K3">
+        <v>0.98</v>
+      </c>
+      <c r="L3">
+        <v>0.08</v>
       </c>
     </row>
-    <row r="4" spans="1:5">
+    <row r="4" spans="1:12">
       <c r="A4" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D4" t="s">
+        <v>6</v>
+      </c>
+      <c r="E4">
+        <v>0.47</v>
+      </c>
+      <c r="F4">
+        <v>0.36</v>
+      </c>
+      <c r="G4">
+        <v>1</v>
+      </c>
+      <c r="H4">
+        <v>0.1</v>
+      </c>
+      <c r="I4">
+        <v>0.2</v>
+      </c>
+      <c r="J4">
+        <v>0.59</v>
+      </c>
+      <c r="K4">
+        <v>0.99</v>
+      </c>
+      <c r="L4">
+        <v>0.08</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12">
+      <c r="A5" t="s">
         <v>4</v>
-      </c>
-      <c r="D4">
-        <v>0.17</v>
-      </c>
-      <c r="E4">
-        <v>0.19</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5">
-      <c r="A5" t="s">
-        <v>3</v>
       </c>
       <c r="B5" t="s">
         <v>5</v>
       </c>
-      <c r="D5">
-        <v>0.16</v>
+      <c r="C5" t="s">
+        <v>7</v>
+      </c>
+      <c r="D5" t="s">
+        <v>6</v>
       </c>
       <c r="E5">
-        <v>0.18</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5">
-      <c r="A6" t="s">
-        <v>3</v>
-      </c>
-      <c r="B6" t="s">
-        <v>4</v>
-      </c>
-      <c r="C6" t="s">
-        <v>5</v>
-      </c>
-      <c r="D6">
-        <v>0.53</v>
-      </c>
-      <c r="E6">
-        <v>0.18</v>
+        <v>0.47</v>
+      </c>
+      <c r="F5">
+        <v>0.36</v>
+      </c>
+      <c r="G5">
+        <v>1</v>
+      </c>
+      <c r="H5">
+        <v>0.1</v>
+      </c>
+      <c r="I5">
+        <v>0.2</v>
+      </c>
+      <c r="J5">
+        <v>0.59</v>
+      </c>
+      <c r="K5">
+        <v>0.99</v>
+      </c>
+      <c r="L5">
+        <v>0.08</v>
       </c>
     </row>
   </sheetData>

--- a/workingfolder/python/tables/SE_Est.xlsx
+++ b/workingfolder/python/tables/SE_Est.xlsx
@@ -1,20 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="11208"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Myworld/Dropbox/ExpProject/workingfolder/python/tables/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FE03E42D-5688-874C-8D5E-36283F252FA0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="10880" yWindow="2320" windowWidth="16100" windowHeight="9660" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="9">
   <si>
     <t>SE: $\hat\lambda_{SPF}$(Q)</t>
   </si>
@@ -38,13 +44,16 @@
   </si>
   <si>
     <t>DisgVar</t>
+  </si>
+  <si>
+    <t>Var</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -107,6 +116,14 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -153,7 +170,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -185,9 +202,27 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -219,6 +254,24 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -394,14 +447,16 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L5"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:M4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="M4" sqref="M4"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:12">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A1" s="1">
         <v>0</v>
       </c>
@@ -414,64 +469,65 @@
       <c r="D1" s="1">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
-        <v>0</v>
-      </c>
+      <c r="E1" s="1"/>
       <c r="F1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="G1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="H1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>2</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>3</v>
       </c>
       <c r="J1" s="1" t="s">
         <v>3</v>
       </c>
       <c r="K1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="L1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:12">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>4</v>
       </c>
       <c r="B2" t="s">
         <v>5</v>
       </c>
-      <c r="E2">
+      <c r="F2">
         <v>0.47</v>
       </c>
-      <c r="F2">
+      <c r="G2">
         <v>0.36</v>
       </c>
-      <c r="G2">
+      <c r="H2">
         <v>1</v>
       </c>
-      <c r="H2">
+      <c r="I2">
         <v>0.08</v>
       </c>
-      <c r="I2">
+      <c r="J2">
         <v>0.2</v>
       </c>
-      <c r="J2">
-        <v>0.59</v>
-      </c>
       <c r="K2">
-        <v>0.99</v>
+        <v>0.5</v>
       </c>
       <c r="L2">
-        <v>0.08</v>
+        <v>0.84</v>
+      </c>
+      <c r="M2">
+        <v>0.25</v>
       </c>
     </row>
-    <row r="3" spans="1:12">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>4</v>
       </c>
@@ -481,32 +537,32 @@
       <c r="C3" t="s">
         <v>7</v>
       </c>
-      <c r="E3">
-        <v>0.27</v>
-      </c>
       <c r="F3">
+        <v>0.47</v>
+      </c>
+      <c r="G3">
         <v>0.38</v>
       </c>
-      <c r="G3">
+      <c r="H3">
         <v>1</v>
       </c>
-      <c r="H3">
-        <v>0.11</v>
-      </c>
       <c r="I3">
-        <v>0.2</v>
+        <v>0.1</v>
       </c>
       <c r="J3">
-        <v>0.5600000000000001</v>
+        <v>0.21</v>
       </c>
       <c r="K3">
-        <v>0.98</v>
+        <v>0.54</v>
       </c>
       <c r="L3">
-        <v>0.08</v>
+        <v>0.92</v>
+      </c>
+      <c r="M3">
+        <v>0.18</v>
       </c>
     </row>
-    <row r="4" spans="1:12">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>4</v>
       </c>
@@ -519,67 +575,32 @@
       <c r="D4" t="s">
         <v>6</v>
       </c>
-      <c r="E4">
+      <c r="E4" t="s">
+        <v>8</v>
+      </c>
+      <c r="F4">
         <v>0.47</v>
       </c>
-      <c r="F4">
+      <c r="G4">
         <v>0.36</v>
       </c>
-      <c r="G4">
+      <c r="H4">
         <v>1</v>
       </c>
-      <c r="H4">
-        <v>0.1</v>
-      </c>
       <c r="I4">
-        <v>0.2</v>
+        <v>0.08</v>
       </c>
       <c r="J4">
-        <v>0.59</v>
+        <v>0.21</v>
       </c>
       <c r="K4">
-        <v>0.99</v>
+        <v>0.5</v>
       </c>
       <c r="L4">
-        <v>0.08</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12">
-      <c r="A5" t="s">
-        <v>4</v>
-      </c>
-      <c r="B5" t="s">
-        <v>5</v>
-      </c>
-      <c r="C5" t="s">
-        <v>7</v>
-      </c>
-      <c r="D5" t="s">
-        <v>6</v>
-      </c>
-      <c r="E5">
-        <v>0.47</v>
-      </c>
-      <c r="F5">
-        <v>0.36</v>
-      </c>
-      <c r="G5">
-        <v>1</v>
-      </c>
-      <c r="H5">
-        <v>0.1</v>
-      </c>
-      <c r="I5">
-        <v>0.2</v>
-      </c>
-      <c r="J5">
-        <v>0.59</v>
-      </c>
-      <c r="K5">
-        <v>0.99</v>
-      </c>
-      <c r="L5">
-        <v>0.08</v>
+        <v>0.84</v>
+      </c>
+      <c r="M4">
+        <v>0.25</v>
       </c>
     </row>
   </sheetData>

--- a/workingfolder/python/tables/SE_Est.xlsx
+++ b/workingfolder/python/tables/SE_Est.xlsx
@@ -1,49 +1,34 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="11208"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Myworld/Dropbox/ExpProject/workingfolder/python/tables/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FE03E42D-5688-874C-8D5E-36283F252FA0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="10880" yWindow="2320" windowWidth="16100" windowHeight="9660" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="6">
   <si>
     <t>SE: $\hat\lambda_{SPF}$(Q)</t>
   </si>
   <si>
-    <t>SE: $\rho$</t>
-  </si>
-  <si>
-    <t>SE: $\sigma$</t>
-  </si>
-  <si>
     <t>SE: $\hat\lambda_{SCE}$(M)</t>
   </si>
   <si>
-    <t>FEVar</t>
-  </si>
-  <si>
-    <t>FEATV</t>
-  </si>
-  <si>
-    <t>DisgATV</t>
-  </si>
-  <si>
-    <t>DisgVar</t>
+    <t>Forecast</t>
+  </si>
+  <si>
+    <t>FE</t>
+  </si>
+  <si>
+    <t>Disg</t>
   </si>
   <si>
     <t>Var</t>
@@ -52,8 +37,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -116,14 +101,6 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
@@ -170,7 +147,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -202,27 +179,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -254,24 +213,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -447,16 +388,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:M4"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:E6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M4" sqref="M4"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5">
       <c r="A1" s="1">
         <v>0</v>
       </c>
@@ -466,141 +405,78 @@
       <c r="C1" s="1">
         <v>2</v>
       </c>
-      <c r="D1" s="1">
+      <c r="D1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
+      <c r="A2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D2">
+        <v>0.05</v>
+      </c>
+      <c r="E2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1"/>
-      <c r="F1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="J1" s="1" t="s">
+      <c r="D3">
+        <v>0.05</v>
+      </c>
+      <c r="E3">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4" t="s">
         <v>3</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="B4" t="s">
+        <v>4</v>
+      </c>
+      <c r="D4">
+        <v>0.03</v>
+      </c>
+      <c r="E4">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5" t="s">
         <v>3</v>
       </c>
-      <c r="L1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
+      <c r="B5" t="s">
+        <v>5</v>
+      </c>
+      <c r="D5">
+        <v>0.08</v>
+      </c>
+      <c r="E5">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6" t="s">
+        <v>3</v>
+      </c>
+      <c r="B6" t="s">
         <v>4</v>
       </c>
-      <c r="B2" t="s">
+      <c r="C6" t="s">
         <v>5</v>
       </c>
-      <c r="F2">
-        <v>0.47</v>
-      </c>
-      <c r="G2">
-        <v>0.36</v>
-      </c>
-      <c r="H2">
-        <v>1</v>
-      </c>
-      <c r="I2">
-        <v>0.08</v>
-      </c>
-      <c r="J2">
-        <v>0.2</v>
-      </c>
-      <c r="K2">
+      <c r="D6">
+        <v>0.03</v>
+      </c>
+      <c r="E6">
         <v>0.5</v>
-      </c>
-      <c r="L2">
-        <v>0.84</v>
-      </c>
-      <c r="M2">
-        <v>0.25</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
-        <v>4</v>
-      </c>
-      <c r="B3" t="s">
-        <v>6</v>
-      </c>
-      <c r="C3" t="s">
-        <v>7</v>
-      </c>
-      <c r="F3">
-        <v>0.47</v>
-      </c>
-      <c r="G3">
-        <v>0.38</v>
-      </c>
-      <c r="H3">
-        <v>1</v>
-      </c>
-      <c r="I3">
-        <v>0.1</v>
-      </c>
-      <c r="J3">
-        <v>0.21</v>
-      </c>
-      <c r="K3">
-        <v>0.54</v>
-      </c>
-      <c r="L3">
-        <v>0.92</v>
-      </c>
-      <c r="M3">
-        <v>0.18</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
-        <v>4</v>
-      </c>
-      <c r="B4" t="s">
-        <v>5</v>
-      </c>
-      <c r="C4" t="s">
-        <v>7</v>
-      </c>
-      <c r="D4" t="s">
-        <v>6</v>
-      </c>
-      <c r="E4" t="s">
-        <v>8</v>
-      </c>
-      <c r="F4">
-        <v>0.47</v>
-      </c>
-      <c r="G4">
-        <v>0.36</v>
-      </c>
-      <c r="H4">
-        <v>1</v>
-      </c>
-      <c r="I4">
-        <v>0.08</v>
-      </c>
-      <c r="J4">
-        <v>0.21</v>
-      </c>
-      <c r="K4">
-        <v>0.5</v>
-      </c>
-      <c r="L4">
-        <v>0.84</v>
-      </c>
-      <c r="M4">
-        <v>0.25</v>
       </c>
     </row>
   </sheetData>
